--- a/PRACTICAS/PRACTICA_5/Punto24.xlsx
+++ b/PRACTICAS/PRACTICA_5/Punto24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Agus\Escritorio\Facultad\2DO AÑO\2do_Semestre\ISO\PRACTICAS\PRACTICA_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D4544-A195-45B2-B57E-671A2953F792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB11D783-D49D-437B-BA28-81EC5D696290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{01749692-93CA-490C-A765-DD3F2A5D17C9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="32">
   <si>
     <t>Marcos/Paginas</t>
   </si>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12671E79-35FC-42B3-BBB2-74C583F032D0}">
   <dimension ref="A1:AD41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="AD43" sqref="AD43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,7 +1103,7 @@
         <v>28</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>28</v>
@@ -2116,7 +2116,9 @@
       <c r="I25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J25" s="12"/>
+      <c r="J25" s="12" t="s">
+        <v>22</v>
+      </c>
       <c r="K25" s="12" t="s">
         <v>22</v>
       </c>
@@ -2155,7 +2157,7 @@
       <c r="AB25" s="12"/>
       <c r="AC25" s="8"/>
       <c r="AD25" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
